--- a/CombinedData/MelanomaIL2_FOVannotations.xlsx
+++ b/CombinedData/MelanomaIL2_FOVannotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\CombinedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{51498DB9-86E7-44D6-A76B-8CCBF9867394}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0785B4DA-2C86-4398-A6F5-47898A220998}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{62F981ED-890B-4209-9447-05AA66920947}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="77">
   <si>
     <t>CELL_DIVE_ID</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Many single sporadic tumor cells</t>
-  </si>
-  <si>
-    <t>Regressed, necrotic</t>
   </si>
   <si>
     <t>Center, necrotic</t>
@@ -748,7 +745,7 @@
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -770,12 +767,12 @@
         <v>3</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -799,7 +796,7 @@
     </row>
     <row r="4" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -821,12 +818,12 @@
         <v>1</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -848,12 +845,12 @@
         <v>6</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
@@ -879,12 +876,12 @@
         <v>1</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -906,12 +903,12 @@
         <v>1</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
@@ -933,12 +930,12 @@
         <v>1</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
@@ -960,12 +957,12 @@
         <v>1</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="7">
         <v>9</v>
@@ -987,12 +984,12 @@
         <v>1</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
@@ -1014,12 +1011,12 @@
         <v>1</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
@@ -1047,12 +1044,12 @@
         <v>1</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -1078,12 +1075,12 @@
         <v>1</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <v>13</v>
@@ -1109,12 +1106,12 @@
         <v>1</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7">
         <v>14</v>
@@ -1140,12 +1137,12 @@
         <v>1</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="7">
         <v>15</v>
@@ -1167,7 +1164,7 @@
     </row>
     <row r="17" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
@@ -1189,7 +1186,7 @@
     </row>
     <row r="18" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A18" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="7">
         <v>17</v>
@@ -1211,7 +1208,7 @@
     </row>
     <row r="19" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="7">
         <v>18</v>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="20" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="7">
         <v>19</v>
@@ -1263,7 +1260,7 @@
     </row>
     <row r="21" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
@@ -1289,7 +1286,7 @@
     </row>
     <row r="22" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="7">
         <v>21</v>
@@ -1315,7 +1312,7 @@
     </row>
     <row r="23" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A23" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="7">
         <v>22</v>
@@ -1341,7 +1338,7 @@
     </row>
     <row r="24" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A24" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="7">
         <v>23</v>
@@ -1367,7 +1364,7 @@
     </row>
     <row r="25" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A25" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="7">
         <v>24</v>
@@ -1393,7 +1390,7 @@
     </row>
     <row r="26" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A26" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="7">
         <v>25</v>
@@ -1415,7 +1412,7 @@
     </row>
     <row r="27" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A27" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="7">
         <v>1</v>
@@ -1424,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7"/>
@@ -1437,7 +1434,7 @@
     </row>
     <row r="28" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A28" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="7">
         <v>2</v>
@@ -1461,7 +1458,7 @@
     </row>
     <row r="29" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A29" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="7">
         <v>3</v>
@@ -1485,12 +1482,12 @@
         <v>1</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="7">
         <v>4</v>
@@ -1512,12 +1509,12 @@
         <v>6</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A31" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="7">
         <v>5</v>
@@ -1539,12 +1536,12 @@
         <v>2</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A32" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="7">
         <v>6</v>
@@ -1568,7 +1565,7 @@
     </row>
     <row r="33" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A33" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="7">
         <v>7</v>
@@ -1592,7 +1589,7 @@
     </row>
     <row r="34" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A34" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="7">
         <v>8</v>
@@ -1616,7 +1613,7 @@
     </row>
     <row r="35" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A35" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="7">
         <v>9</v>
@@ -1640,7 +1637,7 @@
     </row>
     <row r="36" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A36" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="7">
         <v>10</v>
@@ -1664,7 +1661,7 @@
     </row>
     <row r="37" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A37" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="7">
         <v>11</v>
@@ -1688,12 +1685,12 @@
         <v>4</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A38" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="7">
         <v>12</v>
@@ -1715,12 +1712,12 @@
         <v>3</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A39" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="7">
         <v>13</v>
@@ -1742,12 +1739,12 @@
         <v>6</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A40" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="7">
         <v>14</v>
@@ -1771,12 +1768,12 @@
         <v>1</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A41" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="7">
         <v>15</v>
@@ -1800,7 +1797,7 @@
     </row>
     <row r="42" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A42" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="7">
         <v>16</v>
@@ -1822,7 +1819,7 @@
     </row>
     <row r="43" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A43" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="7">
         <v>17</v>
@@ -1844,7 +1841,7 @@
     </row>
     <row r="44" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A44" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="7">
         <v>18</v>
@@ -1866,7 +1863,7 @@
     </row>
     <row r="45" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A45" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="7">
         <v>19</v>
@@ -1888,12 +1885,12 @@
         <v>1</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A46" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="7">
         <v>20</v>
@@ -1917,12 +1914,12 @@
         <v>1</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A47" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" s="7">
         <v>21</v>
@@ -1946,12 +1943,12 @@
         <v>2</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A48" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="7">
         <v>22</v>
@@ -1975,12 +1972,12 @@
         <v>2</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A49" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="7">
         <v>23</v>
@@ -2004,12 +2001,12 @@
         <v>4</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A50" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="7">
         <v>24</v>
@@ -2035,12 +2032,12 @@
         <v>1</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A51" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="7">
         <v>25</v>
@@ -2064,7 +2061,7 @@
     </row>
     <row r="52" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A52" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="7">
         <v>26</v>
@@ -2086,12 +2083,12 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A53" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="7">
         <v>27</v>
@@ -2113,12 +2110,12 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A54" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="7">
         <v>28</v>
@@ -2140,7 +2137,7 @@
     </row>
     <row r="55" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A55" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="7">
         <v>29</v>
@@ -2162,7 +2159,7 @@
     </row>
     <row r="56" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A56" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" s="7">
         <v>30</v>
@@ -2184,12 +2181,12 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A57" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="7">
         <v>31</v>
@@ -2215,12 +2212,12 @@
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A58" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="7">
         <v>32</v>
@@ -2246,12 +2243,12 @@
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A59" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="7">
         <v>33</v>
@@ -2277,12 +2274,12 @@
       </c>
       <c r="L59" s="7"/>
       <c r="M59" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A60" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="7">
         <v>34</v>
@@ -2306,12 +2303,12 @@
       </c>
       <c r="L60" s="7"/>
       <c r="M60" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A61" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="7">
         <v>1</v>
@@ -2320,7 +2317,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="7"/>
@@ -2333,7 +2330,7 @@
     </row>
     <row r="62" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A62" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="7">
         <v>2</v>
@@ -2342,7 +2339,7 @@
         <v>16</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="7"/>
@@ -2355,7 +2352,7 @@
     </row>
     <row r="63" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A63" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="7">
         <v>3</v>
@@ -2364,7 +2361,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="7"/>
@@ -2377,7 +2374,7 @@
     </row>
     <row r="64" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A64" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="7">
         <v>4</v>
@@ -2386,7 +2383,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="7"/>
@@ -2399,7 +2396,7 @@
     </row>
     <row r="65" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A65" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="7">
         <v>5</v>
@@ -2408,7 +2405,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="7"/>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="66" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A66" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" s="7">
         <v>6</v>
@@ -2430,7 +2427,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="7"/>
@@ -2443,7 +2440,7 @@
     </row>
     <row r="67" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A67" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="7">
         <v>7</v>
@@ -2452,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="7"/>
@@ -2465,7 +2462,7 @@
     </row>
     <row r="68" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A68" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="7">
         <v>8</v>
@@ -2474,7 +2471,7 @@
         <v>16</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="7"/>
@@ -2487,7 +2484,7 @@
     </row>
     <row r="69" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A69" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="7">
         <v>9</v>
@@ -2496,7 +2493,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="7"/>
@@ -2509,7 +2506,7 @@
     </row>
     <row r="70" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A70" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="7">
         <v>10</v>
@@ -2518,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="7"/>
@@ -2531,7 +2528,7 @@
     </row>
     <row r="71" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A71" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="7">
         <v>11</v>
@@ -2540,7 +2537,7 @@
         <v>16</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="7" t="s">
@@ -2555,7 +2552,7 @@
     </row>
     <row r="72" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A72" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="7">
         <v>12</v>
@@ -2564,7 +2561,7 @@
         <v>16</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="7"/>
@@ -2577,12 +2574,12 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A73" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="7">
         <v>13</v>
@@ -2591,7 +2588,7 @@
         <v>16</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="7"/>
@@ -2604,12 +2601,12 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A74" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="7">
         <v>14</v>
@@ -2618,7 +2615,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="7"/>
@@ -2631,7 +2628,7 @@
     </row>
     <row r="75" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A75" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="7">
         <v>15</v>
@@ -2640,7 +2637,7 @@
         <v>16</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="7"/>
@@ -2653,7 +2650,7 @@
     </row>
     <row r="76" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A76" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="7">
         <v>16</v>
@@ -2662,7 +2659,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="7"/>
@@ -2675,7 +2672,7 @@
     </row>
     <row r="77" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A77" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="7">
         <v>17</v>
@@ -2684,7 +2681,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="7"/>
@@ -2697,7 +2694,7 @@
     </row>
     <row r="78" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A78" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="7">
         <v>18</v>
@@ -2706,7 +2703,7 @@
         <v>16</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="7"/>
@@ -2719,7 +2716,7 @@
     </row>
     <row r="79" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A79" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="7">
         <v>19</v>
@@ -2728,7 +2725,7 @@
         <v>16</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="7"/>
@@ -2741,7 +2738,7 @@
     </row>
     <row r="80" spans="1:13" s="10" customFormat="1" ht="15">
       <c r="A80" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="7">
         <v>20</v>
@@ -2750,7 +2747,7 @@
         <v>16</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="7"/>
@@ -2763,7 +2760,7 @@
     </row>
     <row r="81" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A81" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81" s="7">
         <v>21</v>
@@ -2772,7 +2769,7 @@
         <v>16</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="7"/>
@@ -2785,7 +2782,7 @@
     </row>
     <row r="82" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A82" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="7">
         <v>22</v>
@@ -2794,7 +2791,7 @@
         <v>16</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="7"/>
@@ -2807,7 +2804,7 @@
     </row>
     <row r="83" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A83" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B83" s="7">
         <v>23</v>
@@ -2831,12 +2828,12 @@
       </c>
       <c r="L83" s="7"/>
       <c r="M83" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A84" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84" s="7">
         <v>24</v>
@@ -2860,12 +2857,12 @@
       </c>
       <c r="L84" s="7"/>
       <c r="M84" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A85" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="7">
         <v>25</v>
@@ -2889,7 +2886,7 @@
     </row>
     <row r="86" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A86" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86" s="7">
         <v>26</v>
@@ -3722,7 +3719,7 @@
         <v>16</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3747,7 +3744,7 @@
         <v>16</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -3772,7 +3769,7 @@
         <v>16</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -3797,7 +3794,7 @@
         <v>16</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -3822,7 +3819,7 @@
         <v>16</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -4101,7 +4098,7 @@
         <v>16</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3" t="s">
@@ -4133,7 +4130,7 @@
         <v>21</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -4149,16 +4146,16 @@
     </row>
     <row r="130" spans="1:15" ht="15">
       <c r="A130" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B130" s="3">
-        <v>1</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -4174,7 +4171,7 @@
     </row>
     <row r="131" spans="1:15" ht="15">
       <c r="A131" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B131" s="3">
         <v>2</v>
@@ -4183,7 +4180,7 @@
         <v>16</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -4199,7 +4196,7 @@
     </row>
     <row r="132" spans="1:15" ht="15">
       <c r="A132" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B132" s="3">
         <v>3</v>
@@ -4208,7 +4205,7 @@
         <v>16</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>19</v>
@@ -4230,7 +4227,7 @@
     </row>
     <row r="133" spans="1:15" ht="15">
       <c r="A133" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B133" s="3">
         <v>4</v>
@@ -4239,7 +4236,7 @@
         <v>16</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -4255,7 +4252,7 @@
     </row>
     <row r="134" spans="1:15" ht="15">
       <c r="A134" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B134" s="3">
         <v>5</v>
@@ -4264,7 +4261,7 @@
         <v>16</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -4282,7 +4279,7 @@
     </row>
     <row r="135" spans="1:15" ht="15">
       <c r="A135" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B135" s="3">
         <v>6</v>
@@ -4291,7 +4288,7 @@
         <v>16</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -4309,7 +4306,7 @@
     </row>
     <row r="136" spans="1:15" ht="15">
       <c r="A136" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B136" s="3">
         <v>7</v>
@@ -4318,7 +4315,7 @@
         <v>16</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -4334,7 +4331,7 @@
     </row>
     <row r="137" spans="1:15" ht="15">
       <c r="A137" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B137" s="3">
         <v>8</v>
@@ -4343,7 +4340,7 @@
         <v>16</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -4359,7 +4356,7 @@
     </row>
     <row r="138" spans="1:15" ht="15">
       <c r="A138" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B138" s="3">
         <v>9</v>
@@ -4368,7 +4365,7 @@
         <v>16</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -4384,7 +4381,7 @@
     </row>
     <row r="139" spans="1:15" ht="15">
       <c r="A139" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B139" s="3">
         <v>10</v>
@@ -4393,7 +4390,7 @@
         <v>16</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -4409,7 +4406,7 @@
     </row>
     <row r="140" spans="1:15" ht="15">
       <c r="A140" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B140" s="3">
         <v>11</v>
@@ -4418,7 +4415,7 @@
         <v>16</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -4434,7 +4431,7 @@
     </row>
     <row r="141" spans="1:15" ht="15">
       <c r="A141" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B141" s="3">
         <v>12</v>
@@ -4443,7 +4440,7 @@
         <v>16</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -4459,7 +4456,7 @@
     </row>
     <row r="142" spans="1:15" ht="15">
       <c r="A142" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B142" s="3">
         <v>13</v>
@@ -4468,7 +4465,7 @@
         <v>16</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -4484,7 +4481,7 @@
     </row>
     <row r="143" spans="1:15" ht="15">
       <c r="A143" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B143" s="3">
         <v>14</v>
@@ -4493,7 +4490,7 @@
         <v>16</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>20</v>
@@ -4511,7 +4508,7 @@
     </row>
     <row r="144" spans="1:15" ht="15">
       <c r="A144" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B144" s="3">
         <v>15</v>
@@ -4520,7 +4517,7 @@
         <v>16</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>20</v>
@@ -4538,16 +4535,16 @@
     </row>
     <row r="145" spans="1:15" ht="15">
       <c r="A145" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" s="3">
+        <v>16</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B145" s="3">
-        <v>16</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>20</v>
@@ -4565,7 +4562,7 @@
     </row>
     <row r="146" spans="1:15" ht="15">
       <c r="A146" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B146" s="3">
         <v>1</v>
@@ -4594,7 +4591,7 @@
     </row>
     <row r="147" spans="1:15" ht="15">
       <c r="A147" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B147" s="3">
         <v>2</v>
@@ -4621,7 +4618,7 @@
     </row>
     <row r="148" spans="1:15" ht="15">
       <c r="A148" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B148" s="3">
         <v>3</v>
@@ -4648,7 +4645,7 @@
     </row>
     <row r="149" spans="1:15" ht="15">
       <c r="A149" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B149" s="3">
         <v>4</v>
@@ -4676,7 +4673,7 @@
     </row>
     <row r="150" spans="1:15" ht="15">
       <c r="A150" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B150" s="3">
         <v>5</v>
@@ -4703,7 +4700,7 @@
     </row>
     <row r="151" spans="1:15" ht="15">
       <c r="A151" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B151" s="3">
         <v>6</v>
@@ -4732,7 +4729,7 @@
     </row>
     <row r="152" spans="1:15" ht="15">
       <c r="A152" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B152" s="3">
         <v>7</v>
@@ -4761,7 +4758,7 @@
     </row>
     <row r="153" spans="1:15" ht="15">
       <c r="A153" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B153" s="3">
         <v>8</v>
@@ -4790,7 +4787,7 @@
     </row>
     <row r="154" spans="1:15" ht="15">
       <c r="A154" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B154" s="3">
         <v>9</v>
@@ -4823,7 +4820,7 @@
     </row>
     <row r="155" spans="1:15" ht="15">
       <c r="A155" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B155" s="3">
         <v>10</v>
@@ -4852,7 +4849,7 @@
     </row>
     <row r="156" spans="1:15" ht="15">
       <c r="A156" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B156" s="3">
         <v>11</v>
@@ -4884,7 +4881,7 @@
     </row>
     <row r="157" spans="1:15" ht="15">
       <c r="A157" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B157" s="3">
         <v>12</v>
@@ -4893,12 +4890,14 @@
         <v>16</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
+      <c r="H157" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -4910,7 +4909,7 @@
     </row>
     <row r="158" spans="1:15" ht="15">
       <c r="A158" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B158" s="3">
         <v>13</v>
@@ -4919,12 +4918,14 @@
         <v>16</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
+      <c r="H158" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -4936,7 +4937,7 @@
     </row>
     <row r="159" spans="1:15" ht="15">
       <c r="A159" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B159" s="3">
         <v>14</v>
@@ -4945,12 +4946,14 @@
         <v>16</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
+      <c r="H159" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
@@ -4962,7 +4965,7 @@
     </row>
     <row r="160" spans="1:15" ht="15">
       <c r="A160" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B160" s="3">
         <v>15</v>
@@ -4987,7 +4990,7 @@
     </row>
     <row r="161" spans="1:15" ht="15">
       <c r="A161" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B161" s="3">
         <v>16</v>
@@ -5012,7 +5015,7 @@
     </row>
     <row r="162" spans="1:15" ht="15">
       <c r="A162" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B162" s="3">
         <v>17</v>
@@ -5037,19 +5040,19 @@
     </row>
     <row r="163" spans="1:15" ht="15">
       <c r="A163" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" s="3">
+        <v>1</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B163" s="3">
-        <v>1</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -5069,7 +5072,7 @@
     </row>
     <row r="164" spans="1:15" ht="15">
       <c r="A164" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B164" s="3">
         <v>2</v>
@@ -5096,7 +5099,7 @@
     </row>
     <row r="165" spans="1:15" ht="15">
       <c r="A165" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B165" s="3">
         <v>3</v>
@@ -5123,7 +5126,7 @@
     </row>
     <row r="166" spans="1:15" ht="15">
       <c r="A166" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B166" s="3">
         <v>4</v>
@@ -5156,7 +5159,7 @@
     </row>
     <row r="167" spans="1:15" ht="15">
       <c r="A167" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B167" s="3">
         <v>5</v>
@@ -5185,7 +5188,7 @@
     </row>
     <row r="168" spans="1:15" ht="15">
       <c r="A168" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B168" s="3">
         <v>6</v>
@@ -5212,7 +5215,7 @@
     </row>
     <row r="169" spans="1:15" ht="15">
       <c r="A169" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B169" s="3">
         <v>7</v>
@@ -5239,7 +5242,7 @@
     </row>
     <row r="170" spans="1:15" ht="15">
       <c r="A170" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B170" s="3">
         <v>8</v>
@@ -5272,7 +5275,7 @@
     </row>
     <row r="171" spans="1:15" ht="15">
       <c r="A171" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B171" s="3">
         <v>9</v>
@@ -5299,7 +5302,7 @@
     </row>
     <row r="172" spans="1:15" ht="15">
       <c r="A172" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B172" s="3">
         <v>10</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="173" spans="1:15" ht="15">
       <c r="A173" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B173" s="3">
         <v>11</v>
@@ -5353,7 +5356,7 @@
     </row>
     <row r="174" spans="1:15" ht="15">
       <c r="A174" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B174" s="3">
         <v>12</v>
@@ -5382,7 +5385,7 @@
     </row>
     <row r="175" spans="1:15" ht="15">
       <c r="A175" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B175" s="3">
         <v>13</v>
@@ -5413,7 +5416,7 @@
     </row>
     <row r="176" spans="1:15" ht="15">
       <c r="A176" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B176" s="3">
         <v>14</v>
@@ -5433,7 +5436,7 @@
     </row>
     <row r="177" spans="1:14" ht="15">
       <c r="A177" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B177" s="3">
         <v>15</v>
@@ -5453,7 +5456,7 @@
     </row>
     <row r="178" spans="1:14" ht="15">
       <c r="A178" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B178" s="3">
         <v>16</v>
@@ -5473,7 +5476,7 @@
     </row>
     <row r="179" spans="1:14" ht="15">
       <c r="A179" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B179" s="3">
         <v>17</v>
@@ -5493,7 +5496,7 @@
     </row>
     <row r="180" spans="1:14" ht="15">
       <c r="A180" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B180" s="3">
         <v>18</v>
@@ -5516,7 +5519,7 @@
     </row>
     <row r="181" spans="1:14" ht="15">
       <c r="A181" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B181" s="3">
         <v>19</v>
@@ -5536,7 +5539,7 @@
     </row>
     <row r="182" spans="1:14" ht="15">
       <c r="A182" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B182" s="3">
         <v>20</v>
@@ -5560,7 +5563,7 @@
     </row>
     <row r="183" spans="1:14" ht="15">
       <c r="A183" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B183" s="3">
         <v>21</v>
@@ -5589,7 +5592,7 @@
     </row>
     <row r="184" spans="1:14" ht="15">
       <c r="A184" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B184" s="3">
         <v>22</v>
@@ -5618,7 +5621,7 @@
     </row>
     <row r="185" spans="1:14" ht="15">
       <c r="A185" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B185" s="3">
         <v>23</v>
@@ -5647,7 +5650,7 @@
     </row>
     <row r="186" spans="1:14" ht="15">
       <c r="A186" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B186" s="3">
         <v>24</v>
@@ -5674,7 +5677,7 @@
     </row>
     <row r="187" spans="1:14" ht="15">
       <c r="A187" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B187" s="3">
         <v>25</v>
@@ -5689,7 +5692,7 @@
         <v>20</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
@@ -5701,7 +5704,7 @@
     </row>
     <row r="188" spans="1:14" ht="15">
       <c r="A188" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B188" s="3">
         <v>26</v>
@@ -5710,7 +5713,7 @@
         <v>16</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>20</v>
@@ -5728,7 +5731,7 @@
     </row>
     <row r="189" spans="1:14" ht="15">
       <c r="A189" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B189" s="3">
         <v>27</v>
@@ -5737,7 +5740,7 @@
         <v>16</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>20</v>
@@ -5755,7 +5758,7 @@
     </row>
     <row r="190" spans="1:14" ht="15">
       <c r="A190" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B190" s="3">
         <v>28</v>
@@ -5764,7 +5767,7 @@
         <v>16</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>20</v>
@@ -5782,7 +5785,7 @@
     </row>
     <row r="191" spans="1:14" ht="15">
       <c r="A191" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B191" s="3">
         <v>29</v>
@@ -5809,7 +5812,7 @@
     </row>
     <row r="192" spans="1:14" ht="15">
       <c r="A192" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B192" s="1">
         <v>1</v>
@@ -5838,7 +5841,7 @@
     </row>
     <row r="193" spans="1:15" ht="15">
       <c r="A193" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B193" s="1">
         <v>2</v>
@@ -5869,7 +5872,7 @@
     </row>
     <row r="194" spans="1:15" ht="15">
       <c r="A194" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B194" s="1">
         <v>3</v>
@@ -5884,7 +5887,7 @@
         <v>20</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J194" s="3"/>
       <c r="K194" s="3">
@@ -5898,7 +5901,7 @@
     </row>
     <row r="195" spans="1:15" ht="15">
       <c r="A195" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B195" s="1">
         <v>4</v>
@@ -5913,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J195" s="3"/>
       <c r="K195" s="3">
@@ -5927,7 +5930,7 @@
     </row>
     <row r="196" spans="1:15" ht="15">
       <c r="A196" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B196" s="1">
         <v>5</v>
@@ -5942,7 +5945,7 @@
         <v>20</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J196" s="3"/>
       <c r="K196" s="3">
@@ -5956,7 +5959,7 @@
     </row>
     <row r="197" spans="1:15" ht="15">
       <c r="A197" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B197" s="1">
         <v>6</v>
@@ -5985,7 +5988,7 @@
     </row>
     <row r="198" spans="1:15" ht="15">
       <c r="A198" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B198" s="1">
         <v>7</v>
@@ -6013,7 +6016,7 @@
     </row>
     <row r="199" spans="1:15" ht="15">
       <c r="A199" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B199" s="1">
         <v>8</v>
@@ -6049,7 +6052,7 @@
     </row>
     <row r="200" spans="1:15" ht="15">
       <c r="A200" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B200" s="1">
         <v>9</v>
@@ -6082,7 +6085,7 @@
     </row>
     <row r="201" spans="1:15" ht="15">
       <c r="A201" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B201" s="1">
         <v>10</v>
@@ -6112,7 +6115,7 @@
     </row>
     <row r="202" spans="1:15" ht="15">
       <c r="A202" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B202" s="1">
         <v>11</v>
@@ -6140,7 +6143,7 @@
     </row>
     <row r="203" spans="1:15" ht="15">
       <c r="A203" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B203" s="1">
         <v>12</v>
@@ -6168,7 +6171,7 @@
     </row>
     <row r="204" spans="1:15" ht="15">
       <c r="A204" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B204" s="1">
         <v>13</v>
@@ -6196,7 +6199,7 @@
     </row>
     <row r="205" spans="1:15" ht="15">
       <c r="A205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B205" s="1">
         <v>14</v>
@@ -6224,7 +6227,7 @@
     </row>
     <row r="206" spans="1:15" ht="15">
       <c r="A206" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B206" s="1">
         <v>15</v>
@@ -6254,7 +6257,7 @@
     </row>
     <row r="207" spans="1:15" ht="15">
       <c r="A207" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B207" s="1">
         <v>16</v>
@@ -6290,7 +6293,7 @@
     </row>
     <row r="208" spans="1:15" ht="15">
       <c r="A208" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B208" s="1">
         <v>17</v>
@@ -6320,7 +6323,7 @@
     </row>
     <row r="209" spans="1:15" ht="15">
       <c r="A209" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B209" s="1">
         <v>18</v>
@@ -6350,7 +6353,7 @@
     </row>
     <row r="210" spans="1:15" ht="15">
       <c r="A210" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B210" s="1">
         <v>19</v>
@@ -6380,7 +6383,7 @@
     </row>
     <row r="211" spans="1:15" ht="15">
       <c r="A211" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B211" s="1">
         <v>20</v>
@@ -6408,7 +6411,7 @@
     </row>
     <row r="212" spans="1:15" ht="15">
       <c r="A212" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B212" s="1">
         <v>21</v>
@@ -6436,7 +6439,7 @@
     </row>
     <row r="213" spans="1:15" ht="15">
       <c r="A213" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B213" s="1">
         <v>22</v>
@@ -6452,7 +6455,7 @@
       </c>
       <c r="H213" s="3"/>
       <c r="I213" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
@@ -6464,7 +6467,7 @@
     </row>
     <row r="214" spans="1:15" ht="15">
       <c r="A214" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B214" s="1">
         <v>23</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="215" spans="1:15" ht="15">
       <c r="A215" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B215" s="1">
         <v>24</v>
@@ -6520,7 +6523,7 @@
     </row>
     <row r="216" spans="1:15" ht="15">
       <c r="A216" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B216" s="1">
         <v>25</v>
@@ -6548,7 +6551,7 @@
     </row>
     <row r="217" spans="1:15" ht="15">
       <c r="A217" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B217" s="1">
         <v>26</v>
@@ -6576,7 +6579,7 @@
     </row>
     <row r="218" spans="1:15" ht="15">
       <c r="A218" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B218" s="1">
         <v>1</v>
@@ -6606,7 +6609,7 @@
     </row>
     <row r="219" spans="1:15" ht="15">
       <c r="A219" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B219" s="1">
         <v>2</v>
@@ -6632,7 +6635,7 @@
     </row>
     <row r="220" spans="1:15" ht="15">
       <c r="A220" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B220" s="1">
         <v>3</v>
@@ -6658,7 +6661,7 @@
     </row>
     <row r="221" spans="1:15" ht="15">
       <c r="A221" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B221" s="1">
         <v>4</v>
@@ -6690,7 +6693,7 @@
     </row>
     <row r="222" spans="1:15" ht="15">
       <c r="A222" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B222" s="1">
         <v>5</v>
@@ -6716,7 +6719,7 @@
     </row>
     <row r="223" spans="1:15" ht="15">
       <c r="A223" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B223" s="1">
         <v>6</v>
@@ -6744,7 +6747,7 @@
     </row>
     <row r="224" spans="1:15" ht="15">
       <c r="A224" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B224" s="1">
         <v>7</v>
@@ -6772,7 +6775,7 @@
     </row>
     <row r="225" spans="1:14" ht="15">
       <c r="A225" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B225" s="1">
         <v>8</v>
@@ -6802,7 +6805,7 @@
     </row>
     <row r="226" spans="1:14" ht="15">
       <c r="A226" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B226" s="1">
         <v>9</v>
@@ -6828,7 +6831,7 @@
     </row>
     <row r="227" spans="1:14" ht="15">
       <c r="A227" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B227" s="1">
         <v>10</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="228" spans="1:14" ht="15">
       <c r="A228" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B228" s="1">
         <v>11</v>
@@ -6884,7 +6887,7 @@
     </row>
     <row r="229" spans="1:14" ht="15">
       <c r="A229" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B229" s="1">
         <v>12</v>
@@ -6912,7 +6915,7 @@
     </row>
     <row r="230" spans="1:14" ht="15">
       <c r="A230" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B230" s="1">
         <v>13</v>
@@ -6940,7 +6943,7 @@
     </row>
     <row r="231" spans="1:14" ht="15">
       <c r="A231" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B231" s="1">
         <v>14</v>
@@ -6966,7 +6969,7 @@
     </row>
     <row r="232" spans="1:14" ht="15">
       <c r="A232" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B232" s="1">
         <v>15</v>
@@ -6992,7 +6995,7 @@
     </row>
     <row r="233" spans="1:14" ht="15">
       <c r="A233" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B233" s="1">
         <v>16</v>
@@ -7018,7 +7021,7 @@
     </row>
     <row r="234" spans="1:14" ht="15">
       <c r="A234" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B234" s="1">
         <v>17</v>
@@ -7046,7 +7049,7 @@
     </row>
     <row r="235" spans="1:14" ht="15">
       <c r="A235" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B235" s="1">
         <v>18</v>
@@ -7074,7 +7077,7 @@
     </row>
     <row r="236" spans="1:14" ht="15">
       <c r="A236" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B236" s="1">
         <v>19</v>
@@ -7102,7 +7105,7 @@
     </row>
     <row r="237" spans="1:14" ht="15">
       <c r="A237" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B237" s="1">
         <v>20</v>
@@ -7130,7 +7133,7 @@
     </row>
     <row r="238" spans="1:14" ht="15">
       <c r="A238" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B238" s="1">
         <v>21</v>
@@ -7142,7 +7145,7 @@
         <v>25</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>20</v>
@@ -7163,7 +7166,7 @@
     </row>
     <row r="239" spans="1:14" ht="15">
       <c r="A239" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B239" s="1">
         <v>22</v>
@@ -7189,7 +7192,7 @@
     </row>
     <row r="240" spans="1:14" ht="15">
       <c r="A240" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B240" s="1">
         <v>23</v>
@@ -7215,7 +7218,7 @@
     </row>
     <row r="241" spans="1:14" ht="15">
       <c r="A241" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B241" s="1">
         <v>24</v>
@@ -7241,7 +7244,7 @@
     </row>
     <row r="242" spans="1:14" ht="15">
       <c r="A242" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B242" s="1">
         <v>25</v>
@@ -7267,7 +7270,7 @@
     </row>
     <row r="243" spans="1:14" ht="15">
       <c r="A243" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B243" s="1">
         <v>26</v>
@@ -7295,7 +7298,7 @@
     </row>
     <row r="244" spans="1:14" ht="15">
       <c r="A244" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B244" s="1">
         <v>27</v>
@@ -7311,7 +7314,7 @@
       </c>
       <c r="H244" s="3"/>
       <c r="I244" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
@@ -7323,7 +7326,7 @@
     </row>
     <row r="245" spans="1:14" ht="15">
       <c r="A245" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B245" s="1">
         <v>28</v>
@@ -7351,7 +7354,7 @@
     </row>
     <row r="246" spans="1:14" ht="15">
       <c r="A246" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B246" s="1">
         <v>29</v>
@@ -7379,7 +7382,7 @@
     </row>
     <row r="247" spans="1:14" ht="15">
       <c r="A247" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B247" s="1">
         <v>30</v>
@@ -7405,7 +7408,7 @@
     </row>
     <row r="248" spans="1:14" ht="15">
       <c r="A248" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B248" s="1">
         <v>31</v>
@@ -7429,7 +7432,7 @@
     </row>
     <row r="249" spans="1:14" ht="15">
       <c r="A249" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B249" s="1">
         <v>32</v>
@@ -7453,7 +7456,7 @@
     </row>
     <row r="250" spans="1:14" ht="15">
       <c r="A250" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B250" s="1">
         <v>33</v>
@@ -7477,7 +7480,7 @@
     </row>
     <row r="251" spans="1:14" ht="15">
       <c r="A251" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B251" s="1">
         <v>34</v>
@@ -7501,7 +7504,7 @@
     </row>
     <row r="252" spans="1:14" ht="15">
       <c r="A252" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B252" s="1">
         <v>35</v>
@@ -7531,7 +7534,7 @@
     </row>
     <row r="253" spans="1:14" ht="15">
       <c r="A253" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B253" s="1">
         <v>36</v>
@@ -7559,7 +7562,7 @@
     </row>
     <row r="254" spans="1:14" ht="15">
       <c r="A254" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B254" s="1">
         <v>37</v>
@@ -7587,19 +7590,19 @@
     </row>
     <row r="255" spans="1:14" ht="15">
       <c r="A255" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B255" s="1">
+        <v>1</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B255" s="1">
-        <v>1</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
@@ -7618,7 +7621,7 @@
     </row>
     <row r="256" spans="1:14" ht="15">
       <c r="A256" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B256" s="1">
         <v>2</v>
@@ -7644,7 +7647,7 @@
     </row>
     <row r="257" spans="1:15" ht="15">
       <c r="A257" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B257" s="1">
         <v>3</v>
@@ -7676,7 +7679,7 @@
     </row>
     <row r="258" spans="1:15" ht="15">
       <c r="A258" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B258" s="1">
         <v>4</v>
@@ -7702,7 +7705,7 @@
     </row>
     <row r="259" spans="1:15" ht="15">
       <c r="A259" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B259" s="1">
         <v>5</v>
@@ -7728,7 +7731,7 @@
     </row>
     <row r="260" spans="1:15" ht="15">
       <c r="A260" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B260" s="1">
         <v>6</v>
@@ -7754,7 +7757,7 @@
     </row>
     <row r="261" spans="1:15" ht="15">
       <c r="A261" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B261" s="1">
         <v>7</v>
@@ -7780,7 +7783,7 @@
     </row>
     <row r="262" spans="1:15" ht="15">
       <c r="A262" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B262" s="1">
         <v>8</v>
@@ -7807,7 +7810,7 @@
     </row>
     <row r="263" spans="1:15" ht="15">
       <c r="A263" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B263" s="1">
         <v>9</v>
@@ -7834,7 +7837,7 @@
     </row>
     <row r="264" spans="1:15" ht="15">
       <c r="A264" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B264" s="1">
         <v>10</v>
@@ -7861,7 +7864,7 @@
     </row>
     <row r="265" spans="1:15" ht="15">
       <c r="A265" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B265" s="1">
         <v>11</v>
@@ -7894,7 +7897,7 @@
     </row>
     <row r="266" spans="1:15" ht="15">
       <c r="A266" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B266" s="1">
         <v>12</v>
@@ -7923,7 +7926,7 @@
     </row>
     <row r="267" spans="1:15" ht="15">
       <c r="A267" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B267" s="1">
         <v>13</v>
@@ -7950,7 +7953,7 @@
     </row>
     <row r="268" spans="1:15" ht="15">
       <c r="A268" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B268" s="1">
         <v>14</v>
@@ -7977,7 +7980,7 @@
     </row>
     <row r="269" spans="1:15" ht="15">
       <c r="A269" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B269" s="1">
         <v>15</v>
@@ -8004,7 +8007,7 @@
     </row>
     <row r="270" spans="1:15" ht="15">
       <c r="A270" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B270" s="1">
         <v>16</v>
@@ -8031,7 +8034,7 @@
     </row>
     <row r="271" spans="1:15" ht="15">
       <c r="A271" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B271" s="1">
         <v>17</v>
@@ -8058,7 +8061,7 @@
     </row>
     <row r="272" spans="1:15" ht="15">
       <c r="A272" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B272" s="1">
         <v>18</v>
@@ -8085,7 +8088,7 @@
     </row>
     <row r="273" spans="1:14" ht="15">
       <c r="A273" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B273" s="1">
         <v>19</v>
@@ -8112,7 +8115,7 @@
     </row>
     <row r="274" spans="1:14" ht="15">
       <c r="A274" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B274" s="1">
         <v>20</v>
@@ -8139,7 +8142,7 @@
     </row>
     <row r="275" spans="1:14" ht="15">
       <c r="A275" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B275" s="1">
         <v>21</v>
@@ -8166,7 +8169,7 @@
     </row>
     <row r="276" spans="1:14" ht="15">
       <c r="A276" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B276" s="1">
         <v>22</v>
@@ -8193,7 +8196,7 @@
     </row>
     <row r="277" spans="1:14" ht="15">
       <c r="A277" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B277" s="1">
         <v>23</v>
@@ -8220,7 +8223,7 @@
     </row>
     <row r="278" spans="1:14" ht="15">
       <c r="A278" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B278" s="1">
         <v>24</v>
@@ -8234,7 +8237,7 @@
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
@@ -8246,7 +8249,7 @@
     </row>
     <row r="279" spans="1:14" ht="15">
       <c r="A279" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B279" s="1">
         <v>25</v>
@@ -8260,7 +8263,7 @@
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
@@ -8274,7 +8277,7 @@
     </row>
     <row r="280" spans="1:14" ht="15">
       <c r="A280" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B280" s="1">
         <v>26</v>
@@ -8300,7 +8303,7 @@
     </row>
     <row r="281" spans="1:14" ht="15">
       <c r="A281" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B281" s="1">
         <v>27</v>
@@ -8328,7 +8331,7 @@
     </row>
     <row r="282" spans="1:14" ht="15">
       <c r="A282" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B282" s="1">
         <v>28</v>
@@ -8354,7 +8357,7 @@
     </row>
     <row r="283" spans="1:14" ht="15">
       <c r="A283" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B283" s="1">
         <v>29</v>
@@ -8378,7 +8381,7 @@
     </row>
     <row r="284" spans="1:14" ht="15">
       <c r="A284" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B284" s="1">
         <v>30</v>
@@ -8404,7 +8407,7 @@
     </row>
     <row r="285" spans="1:14" ht="15">
       <c r="A285" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B285" s="1">
         <v>31</v>
@@ -8430,7 +8433,7 @@
     </row>
     <row r="286" spans="1:14" ht="15">
       <c r="A286" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B286" s="1">
         <v>32</v>
@@ -8454,7 +8457,7 @@
     </row>
     <row r="287" spans="1:14" ht="15">
       <c r="A287" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B287" s="1">
         <v>33</v>
@@ -8478,7 +8481,7 @@
     </row>
     <row r="288" spans="1:14" ht="15">
       <c r="A288" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B288" s="1">
         <v>34</v>
@@ -8502,7 +8505,7 @@
     </row>
     <row r="289" spans="1:15" ht="15">
       <c r="A289" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B289" s="1">
         <v>35</v>
@@ -8528,7 +8531,7 @@
     </row>
     <row r="290" spans="1:15" ht="15">
       <c r="A290" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B290" s="1">
         <v>36</v>
@@ -8556,7 +8559,7 @@
     </row>
     <row r="291" spans="1:15" ht="15">
       <c r="A291" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B291" s="1">
         <v>1</v>
@@ -8582,7 +8585,7 @@
     </row>
     <row r="292" spans="1:15" ht="15">
       <c r="A292" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B292" s="1">
         <v>2</v>
@@ -8608,7 +8611,7 @@
     </row>
     <row r="293" spans="1:15" ht="15">
       <c r="A293" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B293" s="1">
         <v>3</v>
@@ -8634,7 +8637,7 @@
     </row>
     <row r="294" spans="1:15" ht="15">
       <c r="A294" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B294" s="1">
         <v>4</v>
@@ -8660,7 +8663,7 @@
     </row>
     <row r="295" spans="1:15" ht="15">
       <c r="A295" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B295" s="1">
         <v>5</v>
@@ -8689,7 +8692,7 @@
     </row>
     <row r="296" spans="1:15" ht="15">
       <c r="A296" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B296" s="1">
         <v>6</v>
@@ -8718,7 +8721,7 @@
     </row>
     <row r="297" spans="1:15" ht="15">
       <c r="A297" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B297" s="1">
         <v>7</v>
@@ -8747,7 +8750,7 @@
     </row>
     <row r="298" spans="1:15" ht="15">
       <c r="A298" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B298" s="1">
         <v>8</v>
@@ -8775,7 +8778,7 @@
     </row>
     <row r="299" spans="1:15" ht="15">
       <c r="A299" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B299" s="1">
         <v>9</v>
@@ -8803,7 +8806,7 @@
     </row>
     <row r="300" spans="1:15" ht="15">
       <c r="A300" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B300" s="1">
         <v>10</v>
@@ -8829,7 +8832,7 @@
     </row>
     <row r="301" spans="1:15" ht="15">
       <c r="A301" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B301" s="1">
         <v>11</v>
@@ -8855,7 +8858,7 @@
     </row>
     <row r="302" spans="1:15" ht="15">
       <c r="A302" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B302" s="1">
         <v>12</v>
@@ -8881,7 +8884,7 @@
     </row>
     <row r="303" spans="1:15" ht="15">
       <c r="A303" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B303" s="1">
         <v>13</v>
@@ -8913,7 +8916,7 @@
     </row>
     <row r="304" spans="1:15" ht="15">
       <c r="A304" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B304" s="1">
         <v>14</v>
@@ -8939,7 +8942,7 @@
     </row>
     <row r="305" spans="1:14" ht="15">
       <c r="A305" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B305" s="1">
         <v>15</v>
@@ -8965,7 +8968,7 @@
     </row>
     <row r="306" spans="1:14" ht="15">
       <c r="A306" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B306" s="1">
         <v>16</v>
@@ -8993,7 +8996,7 @@
     </row>
     <row r="307" spans="1:14" ht="15">
       <c r="A307" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B307" s="1">
         <v>17</v>
@@ -9019,7 +9022,7 @@
     </row>
     <row r="308" spans="1:14" ht="15">
       <c r="A308" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B308" s="1">
         <v>18</v>
@@ -9047,7 +9050,7 @@
     </row>
     <row r="309" spans="1:14" ht="15">
       <c r="A309" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B309" s="1">
         <v>19</v>
@@ -9073,7 +9076,7 @@
     </row>
     <row r="310" spans="1:14" ht="15">
       <c r="A310" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B310" s="1">
         <v>20</v>
@@ -9099,7 +9102,7 @@
     </row>
     <row r="311" spans="1:14" ht="15">
       <c r="A311" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B311" s="1">
         <v>21</v>
@@ -9125,7 +9128,7 @@
     </row>
     <row r="312" spans="1:14" ht="15">
       <c r="A312" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B312" s="1">
         <v>22</v>
@@ -9149,7 +9152,7 @@
     </row>
     <row r="313" spans="1:14" ht="15">
       <c r="A313" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B313" s="1">
         <v>23</v>
@@ -9173,7 +9176,7 @@
     </row>
     <row r="314" spans="1:14" ht="15">
       <c r="A314" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B314" s="1">
         <v>24</v>
@@ -9197,7 +9200,7 @@
     </row>
     <row r="315" spans="1:14" ht="15">
       <c r="A315" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B315" s="1">
         <v>25</v>
@@ -9223,7 +9226,7 @@
     </row>
     <row r="316" spans="1:14" ht="15">
       <c r="A316" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B316" s="1">
         <v>26</v>
@@ -9247,7 +9250,7 @@
     </row>
     <row r="317" spans="1:14" ht="15">
       <c r="A317" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B317" s="1">
         <v>27</v>
@@ -9271,7 +9274,7 @@
     </row>
     <row r="318" spans="1:14" ht="15">
       <c r="A318" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B318" s="1">
         <v>28</v>
@@ -9295,7 +9298,7 @@
     </row>
     <row r="319" spans="1:14" ht="15">
       <c r="A319" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B319" s="1">
         <v>29</v>
@@ -9319,7 +9322,7 @@
     </row>
     <row r="320" spans="1:14" ht="15">
       <c r="A320" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B320" s="1">
         <v>30</v>
@@ -9343,7 +9346,7 @@
     </row>
     <row r="321" spans="1:15" ht="15">
       <c r="A321" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B321" s="1">
         <v>31</v>
@@ -9367,7 +9370,7 @@
     </row>
     <row r="322" spans="1:15" ht="15">
       <c r="A322" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B322" s="1">
         <v>32</v>
@@ -9391,7 +9394,7 @@
     </row>
     <row r="323" spans="1:15" ht="15">
       <c r="A323" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B323" s="1">
         <v>33</v>
@@ -9415,7 +9418,7 @@
     </row>
     <row r="324" spans="1:15" ht="15">
       <c r="A324" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B324" s="1">
         <v>34</v>
@@ -9443,7 +9446,7 @@
     </row>
     <row r="325" spans="1:15" ht="15">
       <c r="A325" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B325" s="1">
         <v>35</v>
@@ -9471,7 +9474,7 @@
     </row>
     <row r="326" spans="1:15" ht="15">
       <c r="A326" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B326" s="1">
         <v>1</v>
@@ -9499,7 +9502,7 @@
     </row>
     <row r="327" spans="1:15" ht="15">
       <c r="A327" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B327" s="1">
         <v>2</v>
@@ -9527,7 +9530,7 @@
     </row>
     <row r="328" spans="1:15" ht="15">
       <c r="A328" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B328" s="1">
         <v>3</v>
@@ -9555,7 +9558,7 @@
     </row>
     <row r="329" spans="1:15" ht="15">
       <c r="A329" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B329" s="1">
         <v>4</v>
@@ -9583,7 +9586,7 @@
     </row>
     <row r="330" spans="1:15" ht="15">
       <c r="A330" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B330" s="1">
         <v>5</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="331" spans="1:15" ht="15">
       <c r="A331" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B331" s="1">
         <v>6</v>
@@ -9639,7 +9642,7 @@
     </row>
     <row r="332" spans="1:15" ht="15">
       <c r="A332" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B332" s="1">
         <v>7</v>
@@ -9667,7 +9670,7 @@
     </row>
     <row r="333" spans="1:15" ht="15">
       <c r="A333" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B333" s="1">
         <v>8</v>
@@ -9701,7 +9704,7 @@
     </row>
     <row r="334" spans="1:15" ht="15">
       <c r="A334" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B334" s="1">
         <v>9</v>
@@ -9731,7 +9734,7 @@
     </row>
     <row r="335" spans="1:15" ht="15">
       <c r="A335" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B335" s="1">
         <v>10</v>
@@ -9759,7 +9762,7 @@
     </row>
     <row r="336" spans="1:15" ht="15">
       <c r="A336" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B336" s="1">
         <v>11</v>
@@ -9787,7 +9790,7 @@
     </row>
     <row r="337" spans="1:14" ht="15">
       <c r="A337" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B337" s="1">
         <v>12</v>
@@ -9817,7 +9820,7 @@
     </row>
     <row r="338" spans="1:14" ht="15">
       <c r="A338" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B338" s="1">
         <v>13</v>
@@ -9845,7 +9848,7 @@
     </row>
     <row r="339" spans="1:14" ht="15">
       <c r="A339" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B339" s="1">
         <v>14</v>
@@ -9857,7 +9860,7 @@
         <v>17</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G339" s="3"/>
       <c r="H339" s="3" t="s">
@@ -9876,7 +9879,7 @@
     </row>
     <row r="340" spans="1:14" ht="15">
       <c r="A340" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B340" s="1">
         <v>15</v>
@@ -9904,7 +9907,7 @@
     </row>
     <row r="341" spans="1:14" ht="15">
       <c r="A341" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B341" s="1">
         <v>16</v>
@@ -9934,7 +9937,7 @@
     </row>
     <row r="342" spans="1:14" ht="15">
       <c r="A342" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B342" s="1">
         <v>17</v>
@@ -9962,7 +9965,7 @@
     </row>
     <row r="343" spans="1:14" ht="15">
       <c r="A343" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B343" s="1">
         <v>18</v>
@@ -9990,7 +9993,7 @@
     </row>
     <row r="344" spans="1:14" ht="15">
       <c r="A344" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B344" s="1">
         <v>19</v>
@@ -10006,7 +10009,7 @@
         <v>20</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
@@ -10018,7 +10021,7 @@
     </row>
     <row r="345" spans="1:14" ht="15">
       <c r="A345" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B345" s="1">
         <v>20</v>
@@ -10044,7 +10047,7 @@
     </row>
     <row r="346" spans="1:14" ht="15">
       <c r="A346" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B346" s="1">
         <v>21</v>
@@ -10072,7 +10075,7 @@
     </row>
     <row r="347" spans="1:14" ht="15">
       <c r="A347" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B347" s="1">
         <v>22</v>
@@ -10098,7 +10101,7 @@
     </row>
     <row r="348" spans="1:14" ht="15">
       <c r="A348" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B348" s="1">
         <v>23</v>
@@ -10124,7 +10127,7 @@
     </row>
     <row r="349" spans="1:14" ht="15">
       <c r="A349" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B349" s="1">
         <v>24</v>
@@ -10150,7 +10153,7 @@
     </row>
     <row r="350" spans="1:14" ht="15">
       <c r="A350" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B350" s="1">
         <v>25</v>
@@ -10178,7 +10181,7 @@
     </row>
     <row r="351" spans="1:14" ht="15">
       <c r="A351" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B351" s="1">
         <v>26</v>
@@ -10206,7 +10209,7 @@
     </row>
     <row r="352" spans="1:14" ht="15">
       <c r="A352" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B352" s="1">
         <v>27</v>
@@ -10234,7 +10237,7 @@
     </row>
     <row r="353" spans="1:15" ht="15">
       <c r="A353" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B353" s="1">
         <v>1</v>
@@ -10260,7 +10263,7 @@
     </row>
     <row r="354" spans="1:15" ht="15">
       <c r="A354" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B354" s="1">
         <v>2</v>
@@ -10288,7 +10291,7 @@
     </row>
     <row r="355" spans="1:15" ht="15">
       <c r="A355" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B355" s="1">
         <v>3</v>
@@ -10316,7 +10319,7 @@
     </row>
     <row r="356" spans="1:15" ht="15">
       <c r="A356" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B356" s="1">
         <v>4</v>
@@ -10344,7 +10347,7 @@
     </row>
     <row r="357" spans="1:15" ht="15">
       <c r="A357" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B357" s="1">
         <v>5</v>
@@ -10368,7 +10371,7 @@
     </row>
     <row r="358" spans="1:15" ht="15">
       <c r="A358" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B358" s="1">
         <v>6</v>
@@ -10396,7 +10399,7 @@
     </row>
     <row r="359" spans="1:15" ht="15">
       <c r="A359" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B359" s="1">
         <v>1</v>
@@ -10422,7 +10425,7 @@
     </row>
     <row r="360" spans="1:15" ht="15">
       <c r="A360" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B360" s="1">
         <v>2</v>
@@ -10456,7 +10459,7 @@
     </row>
     <row r="361" spans="1:15" ht="15">
       <c r="A361" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B361" s="1">
         <v>3</v>
@@ -10484,7 +10487,7 @@
     </row>
     <row r="362" spans="1:15" ht="15">
       <c r="A362" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B362" s="1">
         <v>4</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="363" spans="1:15" ht="15">
       <c r="A363" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B363" s="1">
         <v>5</v>
@@ -10540,7 +10543,7 @@
     </row>
     <row r="364" spans="1:15" ht="15">
       <c r="A364" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B364" s="1">
         <v>6</v>
@@ -10566,7 +10569,7 @@
     </row>
     <row r="365" spans="1:15" ht="15">
       <c r="A365" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B365" s="1">
         <v>7</v>
@@ -10592,7 +10595,7 @@
     </row>
     <row r="366" spans="1:15" ht="15">
       <c r="A366" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B366" s="1">
         <v>8</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="367" spans="1:15" ht="15">
       <c r="A367" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B367" s="1">
         <v>9</v>
@@ -10644,7 +10647,7 @@
     </row>
     <row r="368" spans="1:15" ht="15">
       <c r="A368" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B368" s="1">
         <v>10</v>
@@ -10668,7 +10671,7 @@
     </row>
     <row r="369" spans="1:14" ht="15">
       <c r="A369" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B369" s="1">
         <v>11</v>
@@ -10692,7 +10695,7 @@
     </row>
     <row r="370" spans="1:14" ht="15">
       <c r="A370" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B370" s="1">
         <v>1</v>
@@ -10701,7 +10704,7 @@
         <v>16</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
@@ -10716,7 +10719,7 @@
     </row>
     <row r="371" spans="1:14" ht="15">
       <c r="A371" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B371" s="1">
         <v>2</v>
@@ -10725,7 +10728,7 @@
         <v>16</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
@@ -10740,7 +10743,7 @@
     </row>
     <row r="372" spans="1:14" ht="15">
       <c r="A372" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B372" s="1">
         <v>3</v>
@@ -10749,7 +10752,7 @@
         <v>16</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
@@ -10764,7 +10767,7 @@
     </row>
     <row r="373" spans="1:14" ht="15">
       <c r="A373" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B373" s="1">
         <v>4</v>
@@ -10773,7 +10776,7 @@
         <v>16</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
@@ -10788,7 +10791,7 @@
     </row>
     <row r="374" spans="1:14" ht="15">
       <c r="A374" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B374" s="1">
         <v>5</v>
@@ -10797,7 +10800,7 @@
         <v>16</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E374" s="6"/>
       <c r="F374" s="3"/>
@@ -10818,7 +10821,7 @@
     </row>
     <row r="375" spans="1:14" ht="15">
       <c r="A375" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B375" s="1">
         <v>6</v>
@@ -10827,7 +10830,7 @@
         <v>16</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E375" s="6"/>
       <c r="F375" s="3"/>
@@ -10848,7 +10851,7 @@
     </row>
     <row r="376" spans="1:14" ht="15">
       <c r="A376" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B376" s="1">
         <v>7</v>
@@ -10857,7 +10860,7 @@
         <v>16</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E376" s="6"/>
       <c r="F376" s="3"/>
@@ -10878,7 +10881,7 @@
     </row>
     <row r="377" spans="1:14" ht="15">
       <c r="A377" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B377" s="1">
         <v>8</v>
@@ -10887,7 +10890,7 @@
         <v>16</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E377" s="6"/>
       <c r="F377" s="3"/>
@@ -10908,7 +10911,7 @@
     </row>
     <row r="378" spans="1:14" ht="15">
       <c r="A378" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B378" s="1">
         <v>9</v>
@@ -10917,7 +10920,7 @@
         <v>16</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E378" s="6"/>
       <c r="F378" s="3"/>
@@ -10934,7 +10937,7 @@
     </row>
     <row r="379" spans="1:14" ht="15">
       <c r="A379" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B379" s="1">
         <v>10</v>
@@ -10943,7 +10946,7 @@
         <v>16</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E379" s="6"/>
       <c r="F379" s="3"/>
@@ -10964,7 +10967,7 @@
     </row>
     <row r="380" spans="1:14" ht="15">
       <c r="A380" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B380" s="1">
         <v>11</v>
@@ -10973,7 +10976,7 @@
         <v>16</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E380" s="6"/>
       <c r="F380" s="3"/>
@@ -10990,7 +10993,7 @@
     </row>
     <row r="381" spans="1:14" ht="15">
       <c r="A381" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B381" s="1">
         <v>12</v>
@@ -10999,7 +11002,7 @@
         <v>16</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E381" s="6"/>
       <c r="F381" s="3"/>
@@ -11020,7 +11023,7 @@
     </row>
     <row r="382" spans="1:14" ht="15">
       <c r="A382" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B382" s="1">
         <v>13</v>
@@ -11029,7 +11032,7 @@
         <v>16</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E382" s="6"/>
       <c r="F382" s="3"/>
@@ -11046,7 +11049,7 @@
     </row>
     <row r="383" spans="1:14" ht="15">
       <c r="A383" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B383" s="1">
         <v>14</v>
@@ -11055,7 +11058,7 @@
         <v>16</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E383" s="6"/>
       <c r="F383" s="3"/>
@@ -11072,7 +11075,7 @@
     </row>
     <row r="384" spans="1:14" ht="15">
       <c r="A384" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B384" s="1">
         <v>15</v>
@@ -11081,7 +11084,7 @@
         <v>16</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E384" s="6"/>
       <c r="F384" s="3"/>
@@ -11098,7 +11101,7 @@
     </row>
     <row r="385" spans="1:15" ht="15">
       <c r="A385" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B385" s="1">
         <v>16</v>
@@ -11107,7 +11110,7 @@
         <v>16</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E385" s="6"/>
       <c r="F385" s="3"/>
@@ -11124,7 +11127,7 @@
     </row>
     <row r="386" spans="1:15" ht="15">
       <c r="A386" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B386" s="1">
         <v>17</v>
@@ -11133,7 +11136,7 @@
         <v>16</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E386" s="6"/>
       <c r="F386" s="3"/>
@@ -11150,7 +11153,7 @@
     </row>
     <row r="387" spans="1:15" ht="15">
       <c r="A387" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B387" s="1">
         <v>18</v>
@@ -11159,7 +11162,7 @@
         <v>16</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E387" s="6"/>
       <c r="F387" s="3"/>
@@ -11176,7 +11179,7 @@
     </row>
     <row r="388" spans="1:15" ht="15">
       <c r="A388" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B388" s="1">
         <v>19</v>
@@ -11185,7 +11188,7 @@
         <v>16</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E388" s="6"/>
       <c r="F388" s="3"/>
@@ -11202,7 +11205,7 @@
     </row>
     <row r="389" spans="1:15" ht="15">
       <c r="A389" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B389" s="1">
         <v>20</v>
@@ -11211,7 +11214,7 @@
         <v>16</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E389" s="6"/>
       <c r="F389" s="3"/>
@@ -11228,7 +11231,7 @@
     </row>
     <row r="390" spans="1:15" ht="15">
       <c r="A390" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B390" s="1">
         <v>21</v>
@@ -11237,7 +11240,7 @@
         <v>16</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E390" s="6" t="s">
         <v>19</v>
@@ -11248,7 +11251,7 @@
       </c>
       <c r="H390" s="3"/>
       <c r="I390" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J390" s="3"/>
       <c r="K390" s="3"/>
@@ -11263,7 +11266,7 @@
     </row>
     <row r="391" spans="1:15" ht="15">
       <c r="A391" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B391" s="1">
         <v>22</v>
@@ -11272,7 +11275,7 @@
         <v>16</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E391" s="6"/>
       <c r="F391" s="3"/>
@@ -11293,7 +11296,7 @@
     </row>
     <row r="392" spans="1:15" ht="15">
       <c r="A392" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B392" s="1">
         <v>23</v>
@@ -11302,7 +11305,7 @@
         <v>16</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E392" s="6"/>
       <c r="F392" s="3"/>
@@ -11319,7 +11322,7 @@
     </row>
     <row r="393" spans="1:15" ht="15">
       <c r="A393" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B393" s="1">
         <v>24</v>
@@ -11328,7 +11331,7 @@
         <v>16</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E393" s="6"/>
       <c r="F393" s="3"/>
@@ -11345,7 +11348,7 @@
     </row>
     <row r="394" spans="1:15" ht="15">
       <c r="A394" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B394" s="1">
         <v>25</v>
@@ -11354,7 +11357,7 @@
         <v>16</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E394" s="6"/>
       <c r="F394" s="3"/>
@@ -11375,7 +11378,7 @@
     </row>
     <row r="395" spans="1:15" ht="15">
       <c r="A395" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B395" s="1">
         <v>26</v>
@@ -11384,7 +11387,7 @@
         <v>16</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E395" s="6"/>
       <c r="F395" s="3"/>
@@ -11405,7 +11408,7 @@
     </row>
     <row r="396" spans="1:15" ht="15">
       <c r="A396" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B396" s="1">
         <v>27</v>
@@ -11435,7 +11438,7 @@
     </row>
     <row r="397" spans="1:15" ht="15">
       <c r="A397" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B397" s="1">
         <v>1</v>
@@ -11444,7 +11447,7 @@
         <v>16</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E397" s="6"/>
       <c r="F397" s="3"/>
@@ -11463,7 +11466,7 @@
     </row>
     <row r="398" spans="1:15" ht="15">
       <c r="A398" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B398" s="1">
         <v>2</v>
@@ -11472,7 +11475,7 @@
         <v>16</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E398" s="6"/>
       <c r="F398" s="3"/>
@@ -11489,7 +11492,7 @@
     </row>
     <row r="399" spans="1:15" ht="15">
       <c r="A399" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B399" s="1">
         <v>3</v>
@@ -11498,7 +11501,7 @@
         <v>16</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E399" s="6"/>
       <c r="F399" s="3"/>
@@ -11515,7 +11518,7 @@
     </row>
     <row r="400" spans="1:15" ht="15">
       <c r="A400" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B400" s="1">
         <v>4</v>
@@ -11524,14 +11527,14 @@
         <v>16</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E400" s="6"/>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
       <c r="I400" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J400" s="3"/>
       <c r="K400" s="3"/>
@@ -11543,7 +11546,7 @@
     </row>
     <row r="401" spans="1:15" ht="15">
       <c r="A401" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B401" s="1">
         <v>5</v>
@@ -11552,7 +11555,7 @@
         <v>16</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E401" s="6"/>
       <c r="F401" s="3"/>
@@ -11571,7 +11574,7 @@
     </row>
     <row r="402" spans="1:15" ht="15">
       <c r="A402" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B402" s="1">
         <v>6</v>
@@ -11580,14 +11583,14 @@
         <v>16</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E402" s="6"/>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
       <c r="I402" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J402" s="3"/>
       <c r="K402" s="3"/>
@@ -11599,7 +11602,7 @@
     </row>
     <row r="403" spans="1:15" ht="15">
       <c r="A403" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B403" s="1">
         <v>7</v>
@@ -11608,14 +11611,14 @@
         <v>16</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E403" s="6"/>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
       <c r="I403" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J403" s="3"/>
       <c r="K403" s="3"/>
@@ -11627,7 +11630,7 @@
     </row>
     <row r="404" spans="1:15" ht="15">
       <c r="A404" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B404" s="1">
         <v>8</v>
@@ -11636,14 +11639,14 @@
         <v>16</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E404" s="6"/>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
       <c r="I404" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J404" s="3"/>
       <c r="K404" s="3"/>
@@ -11655,7 +11658,7 @@
     </row>
     <row r="405" spans="1:15" ht="15">
       <c r="A405" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B405" s="1">
         <v>9</v>
@@ -11664,7 +11667,7 @@
         <v>16</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E405" s="6" t="s">
         <v>19</v>
@@ -11673,7 +11676,7 @@
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
       <c r="I405" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J405" s="3"/>
       <c r="K405" s="3"/>
@@ -11688,7 +11691,7 @@
     </row>
     <row r="406" spans="1:15" ht="15">
       <c r="A406" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B406" s="1">
         <v>10</v>
@@ -11697,14 +11700,14 @@
         <v>16</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E406" s="6"/>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J406" s="3"/>
       <c r="K406" s="3"/>
@@ -11716,7 +11719,7 @@
     </row>
     <row r="407" spans="1:15" ht="15">
       <c r="A407" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B407" s="1">
         <v>11</v>
@@ -11725,7 +11728,7 @@
         <v>16</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E407" s="6"/>
       <c r="F407" s="3"/>
@@ -11742,7 +11745,7 @@
     </row>
     <row r="408" spans="1:15" ht="15">
       <c r="A408" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B408" s="1">
         <v>12</v>
@@ -11751,14 +11754,14 @@
         <v>16</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E408" s="6"/>
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
       <c r="I408" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J408" s="3"/>
       <c r="K408" s="3"/>
@@ -11770,7 +11773,7 @@
     </row>
     <row r="409" spans="1:15" ht="15">
       <c r="A409" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B409" s="1">
         <v>13</v>
@@ -11779,14 +11782,14 @@
         <v>16</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E409" s="6"/>
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
       <c r="I409" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J409" s="3"/>
       <c r="K409" s="3"/>
@@ -11798,7 +11801,7 @@
     </row>
     <row r="410" spans="1:15" ht="15">
       <c r="A410" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B410" s="1">
         <v>14</v>
@@ -11807,7 +11810,7 @@
         <v>16</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E410" s="6"/>
       <c r="F410" s="3"/>
@@ -11824,7 +11827,7 @@
     </row>
     <row r="411" spans="1:15" ht="15">
       <c r="A411" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B411" s="1">
         <v>15</v>
@@ -11833,14 +11836,14 @@
         <v>16</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E411" s="6"/>
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
       <c r="I411" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J411" s="3"/>
       <c r="K411" s="3"/>
@@ -11852,7 +11855,7 @@
     </row>
     <row r="412" spans="1:15" ht="15">
       <c r="A412" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B412" s="1">
         <v>16</v>
@@ -11861,14 +11864,14 @@
         <v>16</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E412" s="6"/>
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
       <c r="I412" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J412" s="3"/>
       <c r="K412" s="3"/>
@@ -11880,7 +11883,7 @@
     </row>
     <row r="413" spans="1:15" ht="15">
       <c r="A413" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B413" s="1">
         <v>17</v>
@@ -11889,7 +11892,7 @@
         <v>16</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E413" s="6"/>
       <c r="F413" s="3"/>
@@ -11906,7 +11909,7 @@
     </row>
     <row r="414" spans="1:15" ht="15">
       <c r="A414" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B414" s="1">
         <v>18</v>
@@ -11915,14 +11918,14 @@
         <v>16</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E414" s="6"/>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
       <c r="I414" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J414" s="3"/>
       <c r="K414" s="3"/>
@@ -11934,7 +11937,7 @@
     </row>
     <row r="415" spans="1:15" ht="15">
       <c r="A415" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B415" s="1">
         <v>19</v>
@@ -11943,7 +11946,7 @@
         <v>16</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E415" s="6"/>
       <c r="F415" s="3"/>
@@ -11960,7 +11963,7 @@
     </row>
     <row r="416" spans="1:15" ht="15">
       <c r="A416" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B416" s="1">
         <v>20</v>
@@ -11990,7 +11993,7 @@
     </row>
     <row r="417" spans="1:15" ht="15">
       <c r="A417" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B417" s="1">
         <v>21</v>
@@ -12022,25 +12025,25 @@
     </row>
     <row r="418" spans="1:15" ht="15">
       <c r="A418" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B418" s="1">
+        <v>1</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E418" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B418" s="1">
-        <v>1</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E418" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
       <c r="I418" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J418" s="3"/>
       <c r="K418" s="3"/>
@@ -12052,7 +12055,7 @@
     </row>
     <row r="419" spans="1:15" ht="15">
       <c r="A419" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B419" s="1">
         <v>2</v>
@@ -12061,10 +12064,10 @@
         <v>16</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E419" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
@@ -12080,7 +12083,7 @@
     </row>
     <row r="420" spans="1:15" ht="15">
       <c r="A420" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B420" s="1">
         <v>3</v>
@@ -12089,10 +12092,10 @@
         <v>16</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E420" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
@@ -12108,7 +12111,7 @@
     </row>
     <row r="421" spans="1:15" ht="15">
       <c r="A421" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B421" s="1">
         <v>4</v>
@@ -12117,10 +12120,10 @@
         <v>16</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E421" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
@@ -12136,7 +12139,7 @@
     </row>
     <row r="422" spans="1:15" ht="15">
       <c r="A422" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B422" s="1">
         <v>5</v>
@@ -12145,10 +12148,10 @@
         <v>16</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E422" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
@@ -12163,7 +12166,7 @@
     </row>
     <row r="423" spans="1:15" ht="15">
       <c r="A423" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B423" s="1">
         <v>6</v>
@@ -12172,10 +12175,10 @@
         <v>16</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E423" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
@@ -12190,7 +12193,7 @@
     </row>
     <row r="424" spans="1:15" ht="15">
       <c r="A424" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B424" s="1">
         <v>7</v>
@@ -12199,10 +12202,10 @@
         <v>16</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E424" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
@@ -12217,7 +12220,7 @@
     </row>
     <row r="425" spans="1:15" ht="15">
       <c r="A425" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B425" s="1">
         <v>8</v>
@@ -12226,10 +12229,10 @@
         <v>16</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E425" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
@@ -12244,7 +12247,7 @@
     </row>
     <row r="426" spans="1:15" ht="15">
       <c r="A426" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B426" s="1">
         <v>9</v>
@@ -12253,10 +12256,10 @@
         <v>16</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
@@ -12274,7 +12277,7 @@
     </row>
     <row r="427" spans="1:15" ht="15">
       <c r="A427" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B427" s="1">
         <v>10</v>
@@ -12283,10 +12286,10 @@
         <v>16</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E427" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
@@ -12301,7 +12304,7 @@
     </row>
     <row r="428" spans="1:15" ht="15">
       <c r="A428" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B428" s="1">
         <v>11</v>
@@ -12310,10 +12313,10 @@
         <v>16</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E428" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
@@ -12328,7 +12331,7 @@
     </row>
     <row r="429" spans="1:15" ht="15">
       <c r="A429" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B429" s="1">
         <v>12</v>
@@ -12337,10 +12340,10 @@
         <v>16</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E429" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
@@ -12355,7 +12358,7 @@
     </row>
     <row r="430" spans="1:15" ht="15">
       <c r="A430" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B430" s="1">
         <v>13</v>
@@ -12364,10 +12367,10 @@
         <v>16</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
@@ -12382,7 +12385,7 @@
     </row>
     <row r="431" spans="1:15" ht="15">
       <c r="A431" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B431" s="1">
         <v>14</v>
@@ -12391,10 +12394,10 @@
         <v>16</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
@@ -12409,7 +12412,7 @@
     </row>
     <row r="432" spans="1:15" ht="15">
       <c r="A432" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B432" s="1">
         <v>15</v>
@@ -12418,10 +12421,10 @@
         <v>16</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
@@ -12436,7 +12439,7 @@
     </row>
     <row r="433" spans="1:15" ht="15">
       <c r="A433" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B433" s="1">
         <v>16</v>
@@ -12448,7 +12451,7 @@
         <v>22</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G433" s="3"/>
       <c r="H433" s="3" t="s">
@@ -12467,7 +12470,7 @@
     </row>
     <row r="434" spans="1:15" ht="15">
       <c r="A434" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B434" s="1">
         <v>17</v>
@@ -12479,7 +12482,7 @@
         <v>22</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G434" s="3"/>
       <c r="H434" s="3" t="s">
@@ -12498,7 +12501,7 @@
     </row>
     <row r="435" spans="1:15" ht="15">
       <c r="A435" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B435" s="1">
         <v>1</v>
@@ -12526,7 +12529,7 @@
     </row>
     <row r="436" spans="1:15" ht="15">
       <c r="A436" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B436" s="1">
         <v>2</v>
@@ -12556,7 +12559,7 @@
     </row>
     <row r="437" spans="1:15" ht="15">
       <c r="A437" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B437" s="1">
         <v>3</v>
@@ -12590,7 +12593,7 @@
     </row>
     <row r="438" spans="1:15" ht="15">
       <c r="A438" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B438" s="1">
         <v>4</v>
@@ -12616,7 +12619,7 @@
     </row>
     <row r="439" spans="1:15" ht="15">
       <c r="A439" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B439" s="1">
         <v>5</v>
@@ -12644,7 +12647,7 @@
     </row>
     <row r="440" spans="1:15" ht="15">
       <c r="A440" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B440" s="1">
         <v>1</v>
@@ -12672,7 +12675,7 @@
     </row>
     <row r="441" spans="1:15" ht="15">
       <c r="A441" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B441" s="1">
         <v>2</v>
@@ -12700,7 +12703,7 @@
     </row>
     <row r="442" spans="1:15" ht="15">
       <c r="A442" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B442" s="1">
         <v>3</v>
@@ -12728,7 +12731,7 @@
     </row>
     <row r="443" spans="1:15" ht="15">
       <c r="A443" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B443" s="1">
         <v>4</v>
@@ -12756,7 +12759,7 @@
     </row>
     <row r="444" spans="1:15" ht="15">
       <c r="A444" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B444" s="1">
         <v>5</v>
@@ -12784,7 +12787,7 @@
     </row>
     <row r="445" spans="1:15" ht="15">
       <c r="A445" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B445" s="1">
         <v>6</v>
@@ -12814,7 +12817,7 @@
     </row>
     <row r="446" spans="1:15" ht="15">
       <c r="A446" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B446" s="1">
         <v>1</v>
@@ -12842,7 +12845,7 @@
     </row>
     <row r="447" spans="1:15" ht="15">
       <c r="A447" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B447" s="1">
         <v>2</v>
@@ -12870,7 +12873,7 @@
     </row>
     <row r="448" spans="1:15" ht="15">
       <c r="A448" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B448" s="1">
         <v>3</v>
@@ -12896,7 +12899,7 @@
     </row>
     <row r="449" spans="1:15" ht="15">
       <c r="A449" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B449" s="1">
         <v>4</v>
@@ -12928,7 +12931,7 @@
     </row>
     <row r="450" spans="1:15" ht="15">
       <c r="A450" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B450" s="1">
         <v>5</v>
@@ -12954,7 +12957,7 @@
     </row>
     <row r="451" spans="1:15" ht="15">
       <c r="A451" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B451" s="1">
         <v>6</v>
@@ -12982,7 +12985,7 @@
     </row>
     <row r="452" spans="1:15" ht="15">
       <c r="A452" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B452" s="1">
         <v>7</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="453" spans="1:15" ht="15">
       <c r="A453" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B453" s="1">
         <v>8</v>
@@ -13036,7 +13039,7 @@
     </row>
     <row r="454" spans="1:15" ht="15">
       <c r="A454" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B454" s="1">
         <v>9</v>
@@ -13066,16 +13069,16 @@
     </row>
     <row r="455" spans="1:15" ht="15">
       <c r="A455" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B455" s="1">
+        <v>1</v>
+      </c>
+      <c r="C455" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B455" s="1">
-        <v>1</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D455" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E455" s="6"/>
       <c r="F455" s="3"/>
@@ -13094,16 +13097,16 @@
     </row>
     <row r="456" spans="1:15" ht="15">
       <c r="A456" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B456" s="1">
         <v>2</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E456" s="6"/>
       <c r="F456" s="3"/>
@@ -13122,16 +13125,16 @@
     </row>
     <row r="457" spans="1:15" ht="15">
       <c r="A457" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B457" s="1">
         <v>3</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E457" s="6"/>
       <c r="F457" s="3"/>
@@ -13150,16 +13153,16 @@
     </row>
     <row r="458" spans="1:15" ht="15">
       <c r="A458" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B458" s="1">
         <v>4</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E458" s="6" t="s">
         <v>19</v>
@@ -13183,16 +13186,16 @@
     </row>
     <row r="459" spans="1:15" ht="15">
       <c r="A459" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B459" s="1">
         <v>5</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E459" s="6"/>
       <c r="F459" s="3"/>
@@ -13211,16 +13214,16 @@
     </row>
     <row r="460" spans="1:15" ht="15">
       <c r="A460" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B460" s="1">
         <v>6</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E460" s="6"/>
       <c r="F460" s="3"/>
@@ -13239,16 +13242,16 @@
     </row>
     <row r="461" spans="1:15" ht="15">
       <c r="A461" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B461" s="1">
         <v>7</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E461" s="6"/>
       <c r="F461" s="3"/>
@@ -13267,23 +13270,23 @@
     </row>
     <row r="462" spans="1:15" ht="15">
       <c r="A462" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B462" s="1">
         <v>8</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E462" s="6"/>
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
       <c r="I462" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J462" s="3">
         <v>1</v>
@@ -13297,16 +13300,16 @@
     </row>
     <row r="463" spans="1:15" ht="15">
       <c r="A463" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B463" s="1">
         <v>9</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E463" s="6"/>
       <c r="F463" s="3"/>
@@ -13325,16 +13328,16 @@
     </row>
     <row r="464" spans="1:15" ht="15">
       <c r="A464" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B464" s="1">
         <v>10</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E464" s="6"/>
       <c r="F464" s="3"/>
@@ -13353,13 +13356,13 @@
     </row>
     <row r="465" spans="1:15" ht="15">
       <c r="A465" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B465" s="1">
         <v>11</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>22</v>
@@ -13385,13 +13388,13 @@
     </row>
     <row r="466" spans="1:15" ht="15">
       <c r="A466" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B466" s="1">
         <v>12</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>22</v>
@@ -13415,7 +13418,7 @@
     </row>
     <row r="467" spans="1:15" ht="15">
       <c r="A467" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B467" s="1">
         <v>1</v>
@@ -13424,7 +13427,7 @@
         <v>16</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E467" s="6"/>
       <c r="F467" s="3"/>
@@ -13443,7 +13446,7 @@
     </row>
     <row r="468" spans="1:15" ht="15">
       <c r="A468" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B468" s="1">
         <v>2</v>
@@ -13452,7 +13455,7 @@
         <v>16</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E468" s="6"/>
       <c r="F468" s="3"/>
@@ -13471,7 +13474,7 @@
     </row>
     <row r="469" spans="1:15" ht="15">
       <c r="A469" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B469" s="1">
         <v>3</v>
@@ -13480,7 +13483,7 @@
         <v>16</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E469" s="6"/>
       <c r="F469" s="3"/>
@@ -13499,7 +13502,7 @@
     </row>
     <row r="470" spans="1:15" ht="15">
       <c r="A470" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B470" s="1">
         <v>4</v>
@@ -13508,7 +13511,7 @@
         <v>16</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
@@ -13525,7 +13528,7 @@
     </row>
     <row r="471" spans="1:15" ht="15">
       <c r="A471" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B471" s="1">
         <v>5</v>
@@ -13534,7 +13537,7 @@
         <v>16</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
@@ -13551,7 +13554,7 @@
     </row>
     <row r="472" spans="1:15" ht="15">
       <c r="A472" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B472" s="1">
         <v>6</v>
@@ -13560,7 +13563,7 @@
         <v>16</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>19</v>
@@ -13581,7 +13584,7 @@
     </row>
     <row r="473" spans="1:15" ht="15">
       <c r="A473" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B473" s="1">
         <v>7</v>
@@ -13590,7 +13593,7 @@
         <v>16</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
@@ -13607,7 +13610,7 @@
     </row>
     <row r="474" spans="1:15" ht="15">
       <c r="A474" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B474" s="1">
         <v>8</v>
@@ -13635,7 +13638,7 @@
     </row>
     <row r="475" spans="1:15" ht="15">
       <c r="A475" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B475" s="1">
         <v>1</v>
@@ -13663,7 +13666,7 @@
     </row>
     <row r="476" spans="1:15" ht="15">
       <c r="A476" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B476" s="1">
         <v>2</v>
@@ -13695,7 +13698,7 @@
     </row>
     <row r="477" spans="1:15" ht="15">
       <c r="A477" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B477" s="1">
         <v>3</v>
@@ -13721,7 +13724,7 @@
     </row>
     <row r="478" spans="1:15" ht="15">
       <c r="A478" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B478" s="1">
         <v>4</v>
@@ -13747,7 +13750,7 @@
     </row>
     <row r="479" spans="1:15" ht="15">
       <c r="A479" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B479" s="1">
         <v>5</v>
@@ -13773,7 +13776,7 @@
     </row>
     <row r="480" spans="1:15" ht="15">
       <c r="A480" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B480" s="1">
         <v>6</v>
@@ -13799,7 +13802,7 @@
     </row>
     <row r="481" spans="1:14" ht="15">
       <c r="A481" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B481" s="1">
         <v>7</v>
@@ -13827,7 +13830,7 @@
     </row>
     <row r="482" spans="1:14" ht="15">
       <c r="A482" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B482" s="1">
         <v>8</v>
@@ -13855,7 +13858,7 @@
     </row>
     <row r="483" spans="1:14" ht="15">
       <c r="A483" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B483" s="1">
         <v>9</v>
@@ -13867,7 +13870,7 @@
         <v>17</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
@@ -13886,7 +13889,7 @@
     </row>
     <row r="484" spans="1:14" ht="15">
       <c r="A484" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B484" s="1">
         <v>10</v>
@@ -13910,7 +13913,7 @@
     </row>
     <row r="485" spans="1:14" ht="15">
       <c r="A485" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B485" s="1">
         <v>11</v>
@@ -13934,7 +13937,7 @@
     </row>
     <row r="486" spans="1:14" ht="15">
       <c r="A486" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B486" s="1">
         <v>12</v>
@@ -13962,7 +13965,7 @@
     </row>
     <row r="487" spans="1:14" ht="15">
       <c r="A487" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B487" s="1">
         <v>13</v>
@@ -13986,7 +13989,7 @@
     </row>
     <row r="488" spans="1:14" ht="15">
       <c r="A488" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B488" s="1">
         <v>14</v>

--- a/CombinedData/MelanomaIL2_FOVannotations.xlsx
+++ b/CombinedData/MelanomaIL2_FOVannotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\CombinedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0785B4DA-2C86-4398-A6F5-47898A220998}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA1AD02C-2FEF-4FC0-80B2-72F353E60826}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{62F981ED-890B-4209-9447-05AA66920947}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="77">
   <si>
     <t>CELL_DIVE_ID</t>
   </si>
@@ -675,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18ED347-835C-47DD-B2BF-EFEE840DFF75}">
   <dimension ref="A1:O488"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3358,14 +3358,14 @@
         <v>16</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -3387,14 +3387,14 @@
         <v>16</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -3445,13 +3445,15 @@
         <v>16</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+      <c r="J105" s="3">
+        <v>1</v>
+      </c>
       <c r="K105" s="3">
         <v>1</v>
       </c>
@@ -3690,13 +3692,15 @@
         <v>16</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="J113" s="3">
+        <v>1</v>
+      </c>
       <c r="K113" s="3">
         <v>1</v>
       </c>
@@ -6588,20 +6592,20 @@
         <v>16</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K218" s="3">
         <v>1</v>
       </c>
       <c r="L218" s="3"/>
       <c r="M218" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N218" s="9" t="s">
         <v>18</v>
@@ -6618,12 +6622,14 @@
         <v>16</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
+      <c r="J219" s="3">
+        <v>1</v>
+      </c>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3">
@@ -7007,7 +7013,9 @@
         <v>25</v>
       </c>
       <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
+      <c r="H233" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
@@ -7175,7 +7183,7 @@
         <v>16</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
@@ -7230,7 +7238,9 @@
         <v>25</v>
       </c>
       <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
+      <c r="H241" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
@@ -7256,7 +7266,9 @@
         <v>25</v>
       </c>
       <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
+      <c r="H242" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
